--- a/3 КУРС/ТСиСА ПРАКТИЧЕСКИЕ/ПР3/Глистограмма.xlsx
+++ b/3 КУРС/ТСиСА ПРАКТИЧЕСКИЕ/ПР3/Глистограмма.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\TULSU\3 КУРС\ТСиСА ПРАКТИЧЕСКИЕ\ПР3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\NIX2TWIX\3 КУРС\ТСиСА ПРАКТИЧЕСКИЕ\ПР3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D526D0D-99CB-408D-9B5A-450D86821BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA24D2D-2A04-4964-85A3-4902CD045AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>№ интервала</t>
   </si>
@@ -68,15 +68,15 @@
   <si>
     <t>[105.769; 118.977)</t>
   </si>
+  <si>
+    <t>(0.2113; 0.7887)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -168,19 +191,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,16 +246,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -240,17 +313,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Относительная частота </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="dk1">
@@ -335,8 +397,363 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref> </c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D575-40AC-ADF3-68E76F4F3754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="2"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1915721887"/>
+        <c:axId val="1915746015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1915721887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915746015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1915746015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915721887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8225537052282463E-2"/>
+          <c:y val="0.2059402408446793"/>
+          <c:w val="0.9022478345424455"/>
+          <c:h val="0.55982503187411703"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$17:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33679</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92549000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88356999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25267000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88593999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69428000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60482000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33678999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92549000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88356999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25267000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88593999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69428000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60482000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33678999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B458-40A1-A311-2F60CE138A99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -539,7 +956,537 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1293,6 +2240,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952268</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392585</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>110196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BAD060-2D19-4834-9246-FCE0411F4F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1559,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,34 +2557,35 @@
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="4" max="4" width="29.5546875" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1616,7 +2602,7 @@
         <v>0.42666700000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1633,7 +2619,7 @@
         <v>0.22666700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1650,7 +2636,7 @@
         <v>9.3333299999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1667,7 +2653,7 @@
         <v>0.106667</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1684,7 +2670,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1701,7 +2687,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1718,7 +2704,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1735,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1752,186 +2738,278 @@
         <v>2.6666700000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="6">
-        <v>150</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.399673</v>
-      </c>
-      <c r="F13">
-        <f>PRODUCT(D13,E13)</f>
-        <v>59.950949999999999</v>
-      </c>
-      <c r="G13" s="7">
-        <v>64</v>
-      </c>
-      <c r="H13" s="9">
-        <f>(G13-F13)*(G13-F13)/F13</f>
-        <v>0.27347032703401714</v>
+    <row r="15" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="6">
-        <v>150</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.239283</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:F21" si="0">PRODUCT(D14,E14)</f>
-        <v>35.892449999999997</v>
-      </c>
-      <c r="G14" s="8">
-        <v>34</v>
-      </c>
-      <c r="H14" s="9">
-        <f t="shared" ref="H14:H21" si="1">(G14-F14)*(G14-F14)/F14</f>
-        <v>9.9780511012761391E-2</v>
-      </c>
+    <row r="16" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="6">
-        <v>150</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.143258</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>21.488699999999998</v>
-      </c>
-      <c r="G15" s="8">
-        <v>14</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>2.6097729360082265</v>
-      </c>
+    <row r="17" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="6">
+        <v>0.22719</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10">
+        <v>7</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="6">
-        <v>150</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8.5768399999999995E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>12.865259999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.7638084941617973</v>
-      </c>
+    <row r="18" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="6">
+        <v>0.92549000000000003</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
     </row>
-    <row r="17" spans="4:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="6">
-        <v>150</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.13493E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>7.7023950000000001</v>
-      </c>
-      <c r="G17" s="8">
+    <row r="19" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>0.17618</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10">
         <v>9</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" si="1"/>
-        <v>0.21860456858223964</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
     </row>
-    <row r="18" spans="4:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="6">
-        <v>150</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3.0742700000000001E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>4.6114050000000004</v>
-      </c>
-      <c r="G18" s="8">
+    <row r="20" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>0.88356999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>0.25267000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>0.35972999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>0.88593999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10">
+        <v>21</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10">
         <v>6</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" si="1"/>
-        <v>0.4181363541100811</v>
-      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
     </row>
-    <row r="19" spans="4:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="6">
-        <v>150</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.8405600000000001E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2.76084</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0717428608684321E-2</v>
-      </c>
+    <row r="24" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>0.69428000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10">
+        <v>11</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8"/>
     </row>
-    <row r="20" spans="4:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="6">
-        <v>150</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.10194E-2</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1.6529100000000001</v>
-      </c>
-      <c r="G20" s="8">
+    <row r="25" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>0.60482000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="7">
+        <f>SUM(G26:G34)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>0.33678999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="1"/>
-        <v>1.6529100000000001</v>
-      </c>
     </row>
-    <row r="21" spans="4:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="6">
-        <v>150</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6.5972799999999996E-3</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.98959199999999992</v>
-      </c>
-      <c r="G21" s="8">
-        <v>4</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="shared" si="1"/>
-        <v>9.157871452542059</v>
+    <row r="27" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="14">
+        <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="9">
-        <f>SUM(H13:H21)</f>
-        <v>15.215072072059867</v>
+    <row r="28" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="7"/>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="14">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C17:L17">
+    <sortCondition ref="L17"/>
+  </sortState>
+  <mergeCells count="31">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/3 КУРС/ТСиСА ПРАКТИЧЕСКИЕ/ПР3/Глистограмма.xlsx
+++ b/3 КУРС/ТСиСА ПРАКТИЧЕСКИЕ/ПР3/Глистограмма.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\NIX2TWIX\3 КУРС\ТСиСА ПРАКТИЧЕСКИЕ\ПР3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA24D2D-2A04-4964-85A3-4902CD045AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7DFEA-09A2-4373-943A-83303FE0AB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,18 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +251,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -266,12 +266,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -629,34 +642,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22719</c:v>
+                  <c:v>0.18097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92549</c:v>
+                  <c:v>0.37542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17618</c:v>
+                  <c:v>0.88422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88357</c:v>
+                  <c:v>0.99019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25267</c:v>
+                  <c:v>0.12807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35973</c:v>
+                  <c:v>0.24805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88594</c:v>
+                  <c:v>0.64032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69428</c:v>
+                  <c:v>0.54876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60482</c:v>
+                  <c:v>0.74945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33679</c:v>
+                  <c:v>0.45753</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,34 +693,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22719</c:v>
+                  <c:v>0.18096999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92549000000000003</c:v>
+                  <c:v>0.37541999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17618</c:v>
+                  <c:v>0.88422000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88356999999999997</c:v>
+                  <c:v>0.99019000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25267000000000001</c:v>
+                  <c:v>0.12806999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35972999999999999</c:v>
+                  <c:v>0.24804999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88593999999999995</c:v>
+                  <c:v>0.64032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69428000000000001</c:v>
+                  <c:v>0.54876000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60482000000000002</c:v>
+                  <c:v>0.74944999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33678999999999998</c:v>
+                  <c:v>0.45752999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,34 +732,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22719</c:v>
+                  <c:v>0.18096999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92549000000000003</c:v>
+                  <c:v>0.37541999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17618</c:v>
+                  <c:v>0.88422000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88356999999999997</c:v>
+                  <c:v>0.99019000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25267000000000001</c:v>
+                  <c:v>0.12806999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35972999999999999</c:v>
+                  <c:v>0.24804999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88593999999999995</c:v>
+                  <c:v>0.64032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69428000000000001</c:v>
+                  <c:v>0.54876000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60482000000000002</c:v>
+                  <c:v>0.74944999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33678999999999998</c:v>
+                  <c:v>0.45752999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2562,28 +2575,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2739,7 +2752,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2756,14 +2769,14 @@
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="6">
-        <v>0.22719</v>
-      </c>
-      <c r="D17" s="6">
+    <row r="17" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="15">
+        <v>0.18096999999999999</v>
+      </c>
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="10">
@@ -2776,14 +2789,14 @@
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="6">
-        <v>0.92549000000000003</v>
-      </c>
-      <c r="D18" s="6">
+    <row r="18" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="19">
+        <v>0.37541999999999998</v>
+      </c>
+      <c r="D18" s="4">
         <v>0.1</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="10">
@@ -2796,9 +2809,9 @@
       <c r="K18" s="12"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19">
-        <v>0.17618</v>
+    <row r="19" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="15">
+        <v>0.88422000000000001</v>
       </c>
       <c r="D19">
         <v>0.2</v>
@@ -2815,9 +2828,9 @@
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20">
-        <v>0.88356999999999997</v>
+    <row r="20" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="16">
+        <v>0.99019000000000001</v>
       </c>
       <c r="D20">
         <v>0.3</v>
@@ -2834,9 +2847,9 @@
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <v>0.25267000000000001</v>
+    <row r="21" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="16">
+        <v>0.12806999999999999</v>
       </c>
       <c r="D21">
         <v>0.4</v>
@@ -2853,9 +2866,9 @@
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22">
-        <v>0.35972999999999999</v>
+    <row r="22" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="17">
+        <v>0.24804999999999999</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -2872,9 +2885,9 @@
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <v>0.88593999999999995</v>
+    <row r="23" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="18">
+        <v>0.64032</v>
       </c>
       <c r="D23">
         <v>0.6</v>
@@ -2891,9 +2904,9 @@
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24">
-        <v>0.69428000000000001</v>
+    <row r="24" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="18">
+        <v>0.54876000000000003</v>
       </c>
       <c r="D24">
         <v>0.7</v>
@@ -2905,77 +2918,107 @@
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <v>0</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25">
-        <v>0.60482000000000002</v>
+    <row r="25" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="18">
+        <v>0.74944999999999995</v>
       </c>
       <c r="D25">
         <v>0.8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <f>SUM(G26:G34)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26">
-        <v>0.33678999999999998</v>
+    <row r="26" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="18">
+        <v>0.45752999999999999</v>
       </c>
       <c r="D26">
         <v>0.9</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13">
+      <c r="F26" s="5"/>
+      <c r="G26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="14">
+      <c r="F27" s="5"/>
+      <c r="G27" s="9">
         <v>6</v>
       </c>
+      <c r="O27" s="15">
+        <v>8.097E-2</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0.37541999999999998</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.88422000000000001</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0.99019000000000001</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0.12806999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="3:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="7"/>
-      <c r="G28" s="14">
+    <row r="28" spans="3:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="5"/>
+      <c r="G28" s="9">
         <v>1</v>
       </c>
+      <c r="O28" s="17">
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0.64032</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0.54876000000000003</v>
+      </c>
+      <c r="R28" s="18">
+        <v>0.74944999999999995</v>
+      </c>
+      <c r="S28" s="18">
+        <v>0.45752999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G29" s="14">
+    <row r="29" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G30" s="14">
+    <row r="30" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="14">
+    <row r="31" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="14">
+    <row r="32" spans="3:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G33" s="14">
+      <c r="G33" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="7:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G34" s="14">
+      <c r="G34" s="9">
         <v>6</v>
       </c>
     </row>
@@ -2984,14 +3027,20 @@
     <sortCondition ref="L17"/>
   </sortState>
   <mergeCells count="31">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
@@ -3001,20 +3050,14 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
